--- a/biology/Médecine/Intoxication_médicamenteuse/Intoxication_médicamenteuse.xlsx
+++ b/biology/Médecine/Intoxication_médicamenteuse/Intoxication_médicamenteuse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Intoxication_m%C3%A9dicamenteuse</t>
+          <t>Intoxication_médicamenteuse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une Intoxication médicamenteuse est une intoxication causée par un ou plusieurs médicaments. Elle peut être volontaire, dans le cadre d'une tentative de suicide, ou accidentelle. Dans ce dernier cas, elle concerne principalement les enfants et les personnes âgées. Les animaux domestiques sont eux aussi susceptibles d'être victimes d'intoxication médicamenteuse. On la distingue du surdosage, qui désigne la prise d'une dose trop élevée d'un médicament faisant partie du traitement habituel de la personne.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Intoxication_m%C3%A9dicamenteuse</t>
+          <t>Intoxication_médicamenteuse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Lors d'une intoxication médicamenteuse, une prise en charge et un traitement méthodiques s'imposent.
 Il convient en premier lieu de contrôler les fonctions vitales et de prendre si nécessaire les mesures classiques de réanimation. Une diminution de l'état de conscience due à une hypoglycémie, au monoxyde de carbone ou à des morphiniques doit être immédiatement recherchée et traitée de manière adéquate. Cela vaut aussi en cas de convulsions provoquées par des intoxications.
